--- a/csv/test.xlsx
+++ b/csv/test.xlsx
@@ -1025,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1285,7 +1285,7 @@
         <v>2</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31">
         <v>2</v>

--- a/csv/test.xlsx
+++ b/csv/test.xlsx
@@ -1025,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/csv/test.xlsx
+++ b/csv/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
   <si>
     <t>##</t>
   </si>
@@ -37,12 +37,6 @@
     <t>nihao</t>
   </si>
   <si>
-    <t>ENUM1</t>
-  </si>
-  <si>
-    <t>enum2</t>
-  </si>
-  <si>
     <t>任务2</t>
   </si>
   <si>
@@ -71,15 +65,6 @@
   </si>
   <si>
     <t>kele</t>
-  </si>
-  <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>T3</t>
   </si>
   <si>
     <t>,</t>
@@ -1023,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1053,6 +1038,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>15</v>
+      </c>
+    </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
@@ -1111,237 +1101,208 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>6</v>
-      </c>
-      <c r="C12">
-        <v>0.5</v>
-      </c>
-    </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>4</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>8</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
         <v>7</v>
       </c>
-      <c r="B16">
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>100</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>1218</v>
+      </c>
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
         <v>8</v>
       </c>
-      <c r="B17" t="s">
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" t="s">
         <v>9</v>
       </c>
-      <c r="C17">
-        <v>8</v>
-      </c>
-      <c r="D17">
-        <v>100</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35">
         <v>1</v>
       </c>
-      <c r="B19">
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+      <c r="E35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36">
         <v>2</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19">
-        <v>5</v>
-      </c>
-      <c r="F19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="D23">
-        <v>4</v>
-      </c>
-      <c r="E23">
-        <v>5</v>
-      </c>
-      <c r="F23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27">
-        <v>3</v>
-      </c>
-      <c r="D27">
-        <v>1218</v>
-      </c>
-      <c r="E27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31">
-        <v>3</v>
-      </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="E31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34">
-        <v>6</v>
-      </c>
-      <c r="E34">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35">
-        <v>2</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35">
-        <v>8</v>
-      </c>
-      <c r="E35">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36">
-        <v>3</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
@@ -1350,6 +1311,20 @@
         <v>8</v>
       </c>
       <c r="E36">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+      <c r="E37">
         <v>1.5</v>
       </c>
     </row>

--- a/csv/test.xlsx
+++ b/csv/test.xlsx
@@ -1008,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1044,279 +1044,270 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+      <c r="A4" t="b">
         <v>1</v>
-      </c>
-      <c r="C4">
-        <v>10.5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>18.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>1218</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>2</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>2</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13">
-        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>4</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>8</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B17">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B18">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
         <v>7</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>8</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>100</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21">
         <v>1</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>2</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>3</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>4</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <v>5</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
         <v>10</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>11</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>12</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>13</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E23" t="s">
         <v>14</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F23" t="s">
         <v>15</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G23" t="s">
         <v>17</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H23" t="s">
         <v>16</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I23" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25">
         <v>1</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>2</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>3</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>4</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <v>5</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F25" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>10.5</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>18.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
         <v>5</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>3</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <v>1218</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E29" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33">
         <v>1</v>
       </c>
-      <c r="B32">
+      <c r="B33">
         <v>2</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <v>3</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <v>2</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E33" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B33">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B34">
         <v>1</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>8</v>
       </c>
-      <c r="E33">
+      <c r="E34">
         <v>2</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F34" t="s">
         <v>6</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G34" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35">
-        <v>6</v>
-      </c>
-      <c r="E35">
-        <v>0.5</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E36">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
@@ -1325,6 +1316,20 @@
         <v>8</v>
       </c>
       <c r="E37">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>8</v>
+      </c>
+      <c r="E38">
         <v>1.5</v>
       </c>
     </row>

--- a/csv/test.xlsx
+++ b/csv/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
   <si>
     <t>##</t>
   </si>
@@ -68,6 +68,10 @@
   </si>
   <si>
     <t>,</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型2</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1011,7 +1015,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1042,6 +1046,9 @@
       <c r="A3">
         <v>15</v>
       </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="b">

--- a/csv/test.xlsx
+++ b/csv/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
   <si>
     <t>##</t>
   </si>
@@ -72,6 +72,10 @@
   </si>
   <si>
     <t>类型2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test2</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1015,7 +1019,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1043,10 +1047,13 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>18</v>
       </c>
     </row>

--- a/csv/test.xlsx
+++ b/csv/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>##</t>
   </si>
@@ -76,6 +76,10 @@
   </si>
   <si>
     <t>Test2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1019,7 +1023,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1050,8 +1054,8 @@
       <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3">
-        <v>15</v>
+      <c r="B3" t="s">
+        <v>20</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>

--- a/csv/test.xlsx
+++ b/csv/test.xlsx
@@ -28,16 +28,10 @@
     <t>Task1</t>
   </si>
   <si>
-    <t>任务1</t>
-  </si>
-  <si>
     <t>Task2</t>
   </si>
   <si>
     <t>nihao</t>
-  </si>
-  <si>
-    <t>任务2</t>
   </si>
   <si>
     <t>hello</t>
@@ -80,6 +74,14 @@
   </si>
   <si>
     <t>Key1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task2</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1023,7 +1025,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1052,13 +1054,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -1079,7 +1081,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -1090,7 +1092,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -1099,7 +1101,7 @@
         <v>1218</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -1137,7 +1139,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -1153,7 +1155,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C19">
         <v>8</v>
@@ -1162,7 +1164,7 @@
         <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
@@ -1182,36 +1184,36 @@
         <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
         <v>10</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D23" t="s">
         <v>11</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E23" t="s">
         <v>12</v>
       </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
         <v>13</v>
       </c>
-      <c r="E23" t="s">
+      <c r="G23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" t="s">
         <v>14</v>
       </c>
-      <c r="F23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" t="s">
-        <v>16</v>
-      </c>
       <c r="I23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
@@ -1231,7 +1233,7 @@
         <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
@@ -1247,7 +1249,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -1258,7 +1260,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -1267,12 +1269,12 @@
         <v>1218</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
@@ -1289,7 +1291,7 @@
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
@@ -1297,16 +1299,16 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E34">
         <v>2</v>
       </c>
       <c r="F34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
@@ -1328,7 +1330,7 @@
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37">
         <v>8</v>
@@ -1342,7 +1344,7 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38">
         <v>8</v>
